--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T12:57:44+00:00</t>
+    <t>2024-07-02T13:11:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:11:33+00:00</t>
+    <t>2024-07-02T13:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:14:05+00:00</t>
+    <t>2024-07-02T13:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:26:15+00:00</t>
+    <t>2024-07-02T14:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:01:23+00:00</t>
+    <t>2024-07-02T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:12:28+00:00</t>
+    <t>2024-07-02T14:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:22:50+00:00</t>
+    <t>2024-07-02T14:29:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:29:50+00:00</t>
+    <t>2024-07-02T14:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:51:43+00:00</t>
+    <t>2024-07-02T15:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:15:33+00:00</t>
+    <t>2024-07-02T15:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/prepare-ig-narratives/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:52:34+00:00</t>
+    <t>2024-07-02T15:55:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
